--- a/module/admin-api/InitFiles/zh-tw/intent_test_template.xlsx
+++ b/module/admin-api/InitFiles/zh-tw/intent_test_template.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changmin/go_home/src/emotibot.com/emotigo/module/admin-api/InitFiles/zh-tw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="16560"/>
   </bookViews>
   <sheets>
-    <sheet name="意圖測試集測試語句" sheetId="1" r:id="rId4"/>
+    <sheet name="意圖測試集測試語句" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>意圖名稱</t>
   </si>
@@ -34,9 +50,6 @@
     <t>幫我訂餐廳</t>
   </si>
   <si>
-    <t>我要訂海底撈</t>
-  </si>
-  <si>
     <t>怎麼訂餐廳</t>
   </si>
   <si>
@@ -48,37 +61,22 @@
   <si>
     <t>人壽險有哪些</t>
   </si>
+  <si>
+    <t>我要訂飯店</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +87,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -161,73 +165,105 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office-Design">
       <a:dk1>
@@ -353,7 +389,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -362,7 +398,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -371,7 +407,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -445,7 +481,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -453,7 +489,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -472,7 +508,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -502,7 +538,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -528,7 +564,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -554,7 +590,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -580,7 +616,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -606,7 +642,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -632,7 +668,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -658,7 +694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,7 +720,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,7 +746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -723,9 +759,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -740,7 +782,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -748,7 +790,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -767,7 +809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -793,7 +835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -845,7 +887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -871,7 +913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,9 +1056,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1030,7 +1078,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1049,7 +1097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +1179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,7 +1205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,7 +1257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,133 +1348,141 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="256" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" t="s" s="7">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" t="s" s="10">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" t="s" s="10">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" t="s" s="10">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" t="s" s="10">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="10">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup scale="25" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000意图测试集测试语句</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
